--- a/benchmark_results_chebyshev/benchmark_results_5neurons.xlsx
+++ b/benchmark_results_chebyshev/benchmark_results_5neurons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,6 +713,168 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>func14</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8.108280873381301e-05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01350774880285633</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07121122994588967</v>
+      </c>
+      <c r="F11" t="n">
+        <v>87.11773204803467</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(5, [5], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>func10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0003404944270843421</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06310108322034479</v>
+      </c>
+      <c r="E12" t="n">
+        <v>28.2779035643353</v>
+      </c>
+      <c r="F12" t="n">
+        <v>37.12144017219543</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(2, [5], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>func11</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0001184142013737773</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0001794741993521967</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.000584236071770132</v>
+      </c>
+      <c r="F13" t="n">
+        <v>345.8800301551819</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(2, [5], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>func12</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0006884538049381509</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01415388799515269</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2939151139126343</v>
+      </c>
+      <c r="F14" t="n">
+        <v>588.8580377101898</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(3, [5], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>func13</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8.55921758042661e-05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.006824223203094659</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04637941477470087</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18.18783593177795</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(4, [5], 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>func14</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>8.486088367231757e-05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01413666540922148</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.07292486867392686</v>
+      </c>
+      <c r="F16" t="n">
+        <v>85.99676108360291</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(5, [5], 1)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
